--- a/Google_Distribuciones_Proyecto.xlsx
+++ b/Google_Distribuciones_Proyecto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilme\Desktop\Proyecto Redes\Proyecto_Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620D40F0-ECC4-4C66-94B5-26931E8C6AAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE45C7-607E-45A5-8965-05AAAFA9965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D019C2EC-662E-4189-B3CB-7C90BCE75419}"/>
+    <workbookView xWindow="2208" yWindow="1620" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{D019C2EC-662E-4189-B3CB-7C90BCE75419}"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="1" r:id="rId1"/>
@@ -543,7 +543,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +646,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -659,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -718,6 +724,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1104,14 +1111,14 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C2" s="10" t="s">
         <v>96</v>
       </c>
@@ -1122,7 +1129,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>300</v>
       </c>
@@ -1140,7 +1147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>350</v>
       </c>
@@ -1176,7 +1183,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>350</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>400</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C8">
         <f>SUM(C3:C7)</f>
         <v>2000</v>
@@ -1232,24 +1239,24 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1269,7 +1276,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G5" t="s">
         <v>52</v>
       </c>
@@ -1280,7 +1287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1350,7 +1357,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1372,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1380,7 +1387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1388,7 +1395,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1399,7 +1406,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1407,7 +1414,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1415,7 +1422,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1437,21 +1444,21 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="3.5703125" customWidth="1"/>
-    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="12" max="12" width="3.5546875" customWidth="1"/>
+    <col min="14" max="14" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" ht="46.2" x14ac:dyDescent="0.85">
       <c r="A1" s="14" t="s">
         <v>97</v>
       </c>
@@ -1462,7 +1469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N2" s="17" t="s">
         <v>26</v>
       </c>
@@ -1470,7 +1477,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
         <v>52</v>
       </c>
@@ -1525,7 +1532,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1587,7 +1594,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1678,7 +1685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1751,7 +1758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1765,7 +1772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <f>SUM(B3,B5,B7,B11,)</f>
@@ -1800,7 +1807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N15" s="17" t="s">
         <v>14</v>
       </c>
@@ -1808,7 +1815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <f>SUM(B14:J14)</f>
         <v>370</v>
@@ -1820,7 +1827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="N17" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="str">
         <f>A3:B3</f>
         <v>Acces</v>
@@ -1881,7 +1888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="str">
         <f>A5</f>
         <v>GoggleCloud</v>
@@ -1917,7 +1924,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="str">
         <f>A7</f>
         <v>Youtube</v>
@@ -1949,7 +1956,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="str">
         <f>A11</f>
         <v>Marketing</v>
@@ -1980,7 +1987,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="str">
         <f>C3</f>
         <v>Waymo</v>
@@ -1998,7 +2005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="str">
         <f>C5</f>
         <v>Bussiness</v>
@@ -2016,7 +2023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="str">
         <f>C9</f>
         <v>StrategicPartnerships</v>
@@ -2034,7 +2041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>101</v>
       </c>
@@ -2042,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -2050,7 +2057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -2061,13 +2068,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B30">
         <f>B29*C29</f>
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B31">
         <f>SUM(B27:B30)</f>
         <v>435</v>
@@ -2076,7 +2083,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B32">
         <f>B31-C31</f>
         <v>26</v>
@@ -2093,22 +2100,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA27DE7-FAAC-4D5D-A440-617AB89B6881}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>105</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
@@ -2150,8 +2157,13 @@
       <c r="H2" s="18" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>9</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2173,8 +2185,13 @@
       <c r="H3" s="18" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>41</v>
       </c>
@@ -2194,8 +2211,13 @@
       <c r="H4" s="18" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>51</v>
       </c>
@@ -2218,7 +2240,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
@@ -2239,7 +2261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2282,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>19</v>
       </c>
@@ -2283,7 +2305,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>104</v>
       </c>
@@ -2306,7 +2328,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>20</v>
       </c>
@@ -2327,7 +2349,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
@@ -2349,7 +2371,7 @@
       </c>
       <c r="K11" s="25"/>
     </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2394,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>16</v>
       </c>
@@ -2393,7 +2415,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>8</v>
       </c>
@@ -2416,7 +2438,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
@@ -2431,7 +2453,7 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>17</v>
       </c>
@@ -2448,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -2463,7 +2485,7 @@
       </c>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>30</v>
       </c>
@@ -2478,7 +2500,7 @@
       </c>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>35</v>
       </c>
@@ -2493,13 +2515,13 @@
       </c>
       <c r="E19" s="28"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="19"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E24" s="22"/>
     </row>
   </sheetData>
@@ -2524,24 +2546,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB763C-F027-4071-A3AD-C2AEA1EF48DC}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2549,7 +2571,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2579,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2596,7 +2618,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2604,7 +2626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
@@ -2612,7 +2634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2626,7 +2648,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2643,7 +2665,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2660,7 +2682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -2677,7 +2699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2694,7 +2716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>

--- a/Google_Distribuciones_Proyecto.xlsx
+++ b/Google_Distribuciones_Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilme\Desktop\Proyecto Redes\Proyecto_Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusel\Desktop\REDES II\3Parcial\Proyecto_Redes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBE45C7-607E-45A5-8965-05AAAFA9965B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA55E5A1-F01D-4A01-AEFA-8B86DBEB6A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="1620" windowWidth="17280" windowHeight="8964" activeTab="4" xr2:uid="{D019C2EC-662E-4189-B3CB-7C90BCE75419}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{D019C2EC-662E-4189-B3CB-7C90BCE75419}"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="166">
   <si>
     <t>EstadosUnidos</t>
   </si>
@@ -304,21 +304,6 @@
     <t>8.8.8.19</t>
   </si>
   <si>
-    <t>Routers Principales</t>
-  </si>
-  <si>
-    <t>EU</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>SUZ</t>
-  </si>
-  <si>
     <t>Pais</t>
   </si>
   <si>
@@ -458,13 +443,103 @@
   </si>
   <si>
     <t>no. Switch</t>
+  </si>
+  <si>
+    <t>10.0.14.0</t>
+  </si>
+  <si>
+    <t>10.0.15.0</t>
+  </si>
+  <si>
+    <t>10.0.16.0</t>
+  </si>
+  <si>
+    <t>Searchunit</t>
+  </si>
+  <si>
+    <t>Platform And Ecosystems</t>
+  </si>
+  <si>
+    <t>Ads And Commerce</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Gogglecloud</t>
+  </si>
+  <si>
+    <t>Strategicpartnerships</t>
+  </si>
+  <si>
+    <t>Technical Infraestructure</t>
+  </si>
+  <si>
+    <t>Virtual And Augmented Real</t>
+  </si>
+  <si>
+    <t>Development And Partnership</t>
+  </si>
+  <si>
+    <t>HR Operations</t>
+  </si>
+  <si>
+    <t>COMPUTADORAS</t>
+  </si>
+  <si>
+    <t>ROUTER DEL PAIS</t>
+  </si>
+  <si>
+    <t>TOTAL DE HOST</t>
+  </si>
+  <si>
+    <t>8.8.8.20</t>
+  </si>
+  <si>
+    <t>8.8.8.24</t>
+  </si>
+  <si>
+    <t>8.8.8.28</t>
+  </si>
+  <si>
+    <t>8.8.8.32</t>
+  </si>
+  <si>
+    <t>ROUTERS PAISES</t>
+  </si>
+  <si>
+    <t>DIRECCION</t>
+  </si>
+  <si>
+    <t>ROUTERS DEL PAIS</t>
+  </si>
+  <si>
+    <t>172.0.2.0</t>
+  </si>
+  <si>
+    <t>172.0.4.0</t>
+  </si>
+  <si>
+    <t>172.0.6.0</t>
+  </si>
+  <si>
+    <t>172.0.8.0</t>
+  </si>
+  <si>
+    <t>Nombre De La red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direccion </t>
+  </si>
+  <si>
+    <t>PAISES</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,14 +557,6 @@
     <font>
       <b/>
       <sz val="22"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -516,12 +583,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
@@ -535,15 +596,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,12 +660,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -646,12 +700,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -665,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -677,39 +725,38 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -721,10 +768,23 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,25 +1171,25 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="17" max="17" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -1140,14 +1200,14 @@
         <f>SUM(A3:B3)</f>
         <v>360</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -1158,14 +1218,14 @@
         <f>SUM(A4:B4)</f>
         <v>360</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>350</v>
       </c>
@@ -1176,14 +1236,14 @@
         <f>SUM(A5:B5)</f>
         <v>410</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>350</v>
       </c>
@@ -1194,14 +1254,14 @@
         <f>SUM(A6:B6)</f>
         <v>410</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>400</v>
       </c>
@@ -1212,14 +1272,14 @@
         <f>SUM(A7:B7)</f>
         <v>460</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8">
         <f>SUM(C3:C7)</f>
         <v>2000</v>
@@ -1236,27 +1296,27 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1276,7 +1336,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" t="s">
         <v>52</v>
       </c>
@@ -1287,7 +1347,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1304,7 +1364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -1318,7 +1378,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,7 +1392,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1357,7 +1417,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1365,7 +1425,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -1379,7 +1439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1387,7 +1447,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1395,7 +1455,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
@@ -1406,7 +1466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>43</v>
       </c>
@@ -1414,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1422,7 +1482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>45</v>
       </c>
@@ -1444,112 +1504,112 @@
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
-    <col min="12" max="12" width="3.5546875" customWidth="1"/>
-    <col min="14" max="14" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.5703125" customWidth="1"/>
+    <col min="14" max="14" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="46.2" x14ac:dyDescent="0.85">
-      <c r="A1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="13">
+    <row r="1" spans="1:15" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="A1" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="12">
         <v>399</v>
       </c>
       <c r="D1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N2" s="17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N2" s="16" t="s">
         <v>26</v>
       </c>
       <c r="O2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>5</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="N3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O3">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="O4">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <f>SUM(D6:D7)</f>
         <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -1558,14 +1618,14 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>51</v>
       </c>
       <c r="O5">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1578,7 +1638,7 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -1587,18 +1647,18 @@
       <c r="J6">
         <v>4</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="O6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <f>SUM(B8:B9)</f>
         <v>40</v>
       </c>
@@ -1614,15 +1674,15 @@
       <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="N7" s="16" t="s">
+      <c r="K7" s="11"/>
+      <c r="N7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="15">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1632,13 +1692,13 @@
       <c r="E8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <f>SUM(H9:H11)</f>
         <v>60</v>
       </c>
@@ -1648,14 +1708,14 @@
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="16">
+      <c r="O8" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +1725,7 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
       <c r="G9" t="s">
@@ -1678,18 +1738,18 @@
         <f>SUM(J5:J8)</f>
         <v>16</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="16">
+      <c r="O9" s="15">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>16</v>
       </c>
       <c r="G10" t="s">
@@ -1698,29 +1758,29 @@
       <c r="H10">
         <v>15</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="16">
+      <c r="O10" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <f>SUM(B12:B13)</f>
         <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -1738,41 +1798,41 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>12</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="15">
+      <c r="E12" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="14">
         <v>8</v>
       </c>
-      <c r="N12" s="16" t="s">
-        <v>104</v>
+      <c r="N12" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="O12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="15" t="s">
         <v>20</v>
       </c>
       <c r="O13">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3">
         <f>SUM(B3,B5,B7,B11,)</f>
@@ -1807,16 +1867,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N15" s="17" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="16" t="s">
         <v>14</v>
       </c>
       <c r="O15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
         <f>SUM(B14:J14)</f>
         <v>370</v>
       </c>
@@ -1827,7 +1887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="N17" t="s">
         <v>25</v>
       </c>
@@ -1835,22 +1895,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="7">
         <f>SUM(J19:J21)</f>
         <v>60</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="15" t="s">
         <v>30</v>
       </c>
       <c r="O18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>A3:B3</f>
         <v>Acces</v>
@@ -1881,14 +1941,14 @@
       <c r="J19">
         <v>15</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="N19" s="15" t="s">
         <v>35</v>
       </c>
       <c r="O19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>A5</f>
         <v>GoggleCloud</v>
@@ -1924,7 +1984,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>A7</f>
         <v>Youtube</v>
@@ -1956,7 +2016,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>A11</f>
         <v>Marketing</v>
@@ -1974,20 +2034,20 @@
         <v>20</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F22">
         <f>J9</f>
         <v>16</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>14</v>
       </c>
       <c r="J22">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>C3</f>
         <v>Waymo</v>
@@ -2005,7 +2065,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>C5</f>
         <v>Bussiness</v>
@@ -2023,7 +2083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>C9</f>
         <v>StrategicPartnerships</v>
@@ -2041,25 +2101,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B28">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>17</v>
@@ -2068,13 +2128,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B30">
         <f>B29*C29</f>
         <v>408</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31">
         <f>SUM(B27:B30)</f>
         <v>435</v>
@@ -2083,7 +2143,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31-C31</f>
         <v>26</v>
@@ -2100,435 +2160,568 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA27DE7-FAAC-4D5D-A440-617AB89B6881}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="L1" s="32"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="14">
+        <v>60</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="14">
+        <v>26</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="14">
+        <v>40</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="14">
+        <v>26</v>
+      </c>
+      <c r="E3" s="23">
+        <v>5</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="30">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="30">
+        <v>30</v>
+      </c>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14">
+        <v>40</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="14">
+        <v>26</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="H4" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="I4" s="30">
+        <v>30</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="30">
+        <v>30</v>
+      </c>
+      <c r="M4" s="30"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="14">
+        <v>30</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="14">
+        <v>27</v>
+      </c>
+      <c r="E5" s="22">
+        <v>4</v>
+      </c>
+      <c r="H5" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="I5" s="30">
+        <v>30</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="14">
+        <v>30</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="14">
+        <v>27</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="H6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="I6" s="30">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="14">
+        <v>24</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="14">
+        <v>27</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="H7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="20">
-        <v>60</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="20">
-        <v>26</v>
-      </c>
-      <c r="E2" s="24">
-        <v>3</v>
-      </c>
-      <c r="G2">
+      <c r="I7" s="30">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="14">
+        <v>25</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="14">
+        <v>27</v>
+      </c>
+      <c r="E8" s="19">
         <v>1</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H8" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="20">
-        <v>40</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="20">
-        <v>26</v>
-      </c>
-      <c r="E3" s="27">
-        <v>5</v>
-      </c>
-      <c r="G3">
+      <c r="I8" s="30">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="14">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27">
         <v>2</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H9" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="15">
-        <v>40</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4">
-        <v>26</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="18" t="s">
+      <c r="I9" s="30">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="14">
+        <v>20</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="14">
+        <v>27</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="H10" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="15">
-        <v>30</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5" s="26">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="15">
-        <v>30</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="I10" s="30">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>154</v>
+      </c>
+      <c r="L10" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="14">
+        <v>13</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="D6">
-        <v>27</v>
-      </c>
-      <c r="E6" s="26"/>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="20">
-        <v>24</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="20">
-        <v>27</v>
-      </c>
-      <c r="E7" s="26"/>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15">
-        <v>20</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8">
-        <v>27</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="20">
-        <v>16</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="20">
-        <v>27</v>
-      </c>
-      <c r="E9" s="31">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="20">
-        <v>16</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="20">
-        <v>27</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="15">
-        <v>12</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="D11">
         <v>28</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="15">
-        <v>12</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>132</v>
+      <c r="E11" s="27"/>
+      <c r="H11" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="30">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>155</v>
+      </c>
+      <c r="L11" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="14">
+        <v>13</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="D12">
         <v>28</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="26">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="15">
+      <c r="H12" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B13" s="14">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>133</v>
+      <c r="C13" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="D13">
         <v>28</v>
       </c>
-      <c r="E13" s="30"/>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
+      <c r="E13" s="26"/>
+      <c r="H13" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>10</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>134</v>
+      <c r="C14" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="D14">
         <v>28</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="25">
         <v>1</v>
       </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="15">
+      <c r="H14" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>135</v>
+      <c r="C15" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="D15">
         <v>28</v>
       </c>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="E15" s="25"/>
+      <c r="H15" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>5</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>136</v>
+      <c r="C16" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="D16">
         <v>29</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="24">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="H16" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="14">
         <v>5</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>137</v>
+      <c r="C17" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="D17">
         <v>29</v>
       </c>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="E17" s="24"/>
+      <c r="H17" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="14">
         <v>5</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>138</v>
+      <c r="C18" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="D18">
         <v>29</v>
       </c>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="15">
+      <c r="E18" s="24"/>
+      <c r="H18" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="30">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="14">
         <v>5</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>139</v>
+      <c r="C19" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="D19">
         <v>29</v>
       </c>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="19"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E24" s="22"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="17"/>
+      <c r="E20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B2:B19)</f>
+        <v>365</v>
+      </c>
+      <c r="E22">
+        <f>SUM(E2:E19)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24">
+        <v>13</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" s="6">
+        <f>SUM(B21:B24)</f>
+        <v>400</v>
+      </c>
+      <c r="E25" s="18"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B19">
     <sortCondition descending="1" ref="B3:B19"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="E16:E19"/>
@@ -2536,89 +2729,147 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E9:E11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAB763C-F027-4071-A3AD-C2AEA1EF48DC}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="0.140625" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>400</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>400</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>400</v>
+      </c>
+      <c r="F5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" s="14">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>400</v>
+      </c>
+      <c r="F7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -2626,7 +2877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
@@ -2634,7 +2885,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -2648,7 +2899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -2665,7 +2916,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -2682,7 +2933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
@@ -2698,8 +2949,12 @@
       <c r="E15" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <f>I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>
@@ -2716,7 +2971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2733,7 +2988,30 @@
         <v>60</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>